--- a/ResultadoEleicoesDistritos/FARO_SÃO BRÁS DE ALPORTEL.xlsx
+++ b/ResultadoEleicoesDistritos/FARO_SÃO BRÁS DE ALPORTEL.xlsx
@@ -597,61 +597,61 @@
         <v>2796</v>
       </c>
       <c r="H2" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I2" t="n">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="J2" t="n">
-        <v>1127</v>
+        <v>1140</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>311</v>
+        <v>337</v>
       </c>
       <c r="M2" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="T2" t="n">
         <v>194</v>
       </c>
       <c r="U2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>1803</v>
+        <v>1783</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1817</v>
+        <v>1793</v>
       </c>
       <c r="Y2" t="n">
         <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
